--- a/data/input/absenteeism_data_32.xlsx
+++ b/data/input/absenteeism_data_32.xlsx
@@ -476,98 +476,98 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>73484</v>
+        <v>68538</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marcos Vinicius Pires</t>
+          <t>Sr. Thiago Nascimento</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45089</v>
+        <v>45078</v>
       </c>
       <c r="G2" t="n">
-        <v>9822.889999999999</v>
+        <v>10355.58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6215</v>
+        <v>33942</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nicolas Cardoso</t>
+          <t>Vitória Vieira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45083</v>
+        <v>45099</v>
       </c>
       <c r="G3" t="n">
-        <v>5657.64</v>
+        <v>9660.24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>97473</v>
+        <v>59224</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sra. Maria Julia da Cunha</t>
+          <t>Paulo Nogueira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45090</v>
+        <v>45103</v>
       </c>
       <c r="G4" t="n">
-        <v>8974.450000000001</v>
+        <v>9336.030000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>84853</v>
+        <v>3380</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dr. Ian Azevedo</t>
+          <t>Vicente Peixoto</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,55 +577,55 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45105</v>
+        <v>45098</v>
       </c>
       <c r="G5" t="n">
-        <v>5932.13</v>
+        <v>10012.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>74173</v>
+        <v>44960</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Agatha Cardoso</t>
+          <t>Heitor das Neves</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45086</v>
+        <v>45090</v>
       </c>
       <c r="G6" t="n">
-        <v>8090.36</v>
+        <v>9422.450000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>76105</v>
+        <v>25587</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sofia da Mata</t>
+          <t>Srta. Rafaela Silveira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,31 +635,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45103</v>
+        <v>45099</v>
       </c>
       <c r="G7" t="n">
-        <v>10172.43</v>
+        <v>3432.26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>54739</v>
+        <v>86136</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sra. Giovanna Cardoso</t>
+          <t>Emanuel Vieira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -671,48 +671,48 @@
         <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45094</v>
+        <v>45098</v>
       </c>
       <c r="G8" t="n">
-        <v>10587.71</v>
+        <v>10712.94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>39063</v>
+        <v>92471</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mariana da Luz</t>
+          <t>Joaquim Cardoso</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45100</v>
+        <v>45085</v>
       </c>
       <c r="G9" t="n">
-        <v>12078.44</v>
+        <v>5712.43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>39744</v>
+        <v>7565</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lorena da Mota</t>
+          <t>Beatriz Cardoso</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -722,46 +722,46 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45080</v>
+        <v>45097</v>
       </c>
       <c r="G10" t="n">
-        <v>5979.3</v>
+        <v>9839.719999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5251</v>
+        <v>34719</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Joana Nascimento</t>
+          <t>Evelyn Costa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45105</v>
+        <v>45079</v>
       </c>
       <c r="G11" t="n">
-        <v>4504.46</v>
+        <v>6435.21</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_32.xlsx
+++ b/data/input/absenteeism_data_32.xlsx
@@ -476,190 +476,190 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>68538</v>
+        <v>50183</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sr. Thiago Nascimento</t>
+          <t>Ana Vitória Azevedo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45078</v>
+        <v>45099</v>
       </c>
       <c r="G2" t="n">
-        <v>10355.58</v>
+        <v>7111.08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>33942</v>
+        <v>79933</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vitória Vieira</t>
+          <t>Maria Alice da Conceição</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45099</v>
+        <v>45090</v>
       </c>
       <c r="G3" t="n">
-        <v>9660.24</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>59224</v>
+        <v>57422</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Paulo Nogueira</t>
+          <t>Dr. André Ferreira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45103</v>
+        <v>45090</v>
       </c>
       <c r="G4" t="n">
-        <v>9336.030000000001</v>
+        <v>7957.54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3380</v>
+        <v>56965</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vicente Peixoto</t>
+          <t>João Miguel da Paz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45098</v>
+        <v>45091</v>
       </c>
       <c r="G5" t="n">
-        <v>10012.34</v>
+        <v>8633.549999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>44960</v>
+        <v>43896</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Heitor das Neves</t>
+          <t>Dr. João Felipe Peixoto</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45090</v>
+        <v>45082</v>
       </c>
       <c r="G6" t="n">
-        <v>9422.450000000001</v>
+        <v>5157.24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>25587</v>
+        <v>92561</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Srta. Rafaela Silveira</t>
+          <t>Alana Cardoso</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45099</v>
+        <v>45090</v>
       </c>
       <c r="G7" t="n">
-        <v>3432.26</v>
+        <v>7439.26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>86136</v>
+        <v>71231</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Emanuel Vieira</t>
+          <t>Marcela da Costa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,22 +668,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45098</v>
+        <v>45103</v>
       </c>
       <c r="G8" t="n">
-        <v>10712.94</v>
+        <v>9292.51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>92471</v>
+        <v>22904</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Joaquim Cardoso</t>
+          <t>Arthur Pires</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -693,60 +693,60 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45085</v>
+        <v>45081</v>
       </c>
       <c r="G9" t="n">
-        <v>5712.43</v>
+        <v>3783.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7565</v>
+        <v>7717</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Beatriz Cardoso</t>
+          <t>Sra. Stephany Barros</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45097</v>
+        <v>45078</v>
       </c>
       <c r="G10" t="n">
-        <v>9839.719999999999</v>
+        <v>10602.61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>34719</v>
+        <v>12013</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Evelyn Costa</t>
+          <t>Bruna Correia</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45079</v>
+        <v>45094</v>
       </c>
       <c r="G11" t="n">
-        <v>6435.21</v>
+        <v>7753.07</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_32.xlsx
+++ b/data/input/absenteeism_data_32.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>50183</v>
+        <v>20661</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ana Vitória Azevedo</t>
+          <t>Theo Peixoto</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,85 +494,85 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45099</v>
+        <v>45093</v>
       </c>
       <c r="G2" t="n">
-        <v>7111.08</v>
+        <v>10714.56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>79933</v>
+        <v>16064</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maria Alice da Conceição</t>
+          <t>Dr. Yuri Oliveira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45090</v>
+        <v>45102</v>
       </c>
       <c r="G3" t="n">
-        <v>3631</v>
+        <v>11006.93</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>57422</v>
+        <v>96022</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dr. André Ferreira</t>
+          <t>Diego Silva</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45090</v>
+        <v>45095</v>
       </c>
       <c r="G4" t="n">
-        <v>7957.54</v>
+        <v>5028.38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>56965</v>
+        <v>62976</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>João Miguel da Paz</t>
+          <t>Carlos Eduardo Barbosa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -584,48 +584,48 @@
         <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45091</v>
+        <v>45082</v>
       </c>
       <c r="G5" t="n">
-        <v>8633.549999999999</v>
+        <v>4996.06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>43896</v>
+        <v>69666</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dr. João Felipe Peixoto</t>
+          <t>Daniela Novaes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45082</v>
+        <v>45094</v>
       </c>
       <c r="G6" t="n">
-        <v>5157.24</v>
+        <v>5958.01</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>92561</v>
+        <v>78325</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Alana Cardoso</t>
+          <t>João Gabriel Souza</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,27 +639,27 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45090</v>
+        <v>45089</v>
       </c>
       <c r="G7" t="n">
-        <v>7439.26</v>
+        <v>5453.27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>71231</v>
+        <v>88156</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Marcela da Costa</t>
+          <t>Srta. Marcela Monteiro</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,27 +668,27 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45103</v>
+        <v>45084</v>
       </c>
       <c r="G8" t="n">
-        <v>9292.51</v>
+        <v>3622.38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>22904</v>
+        <v>19829</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Arthur Pires</t>
+          <t>Sr. Antônio Ferreira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -700,24 +700,24 @@
         <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45081</v>
+        <v>45095</v>
       </c>
       <c r="G9" t="n">
-        <v>3783.1</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7717</v>
+        <v>21045</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sra. Stephany Barros</t>
+          <t>Henrique Cunha</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -729,39 +729,39 @@
         <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45078</v>
+        <v>45103</v>
       </c>
       <c r="G10" t="n">
-        <v>10602.61</v>
+        <v>6024.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12013</v>
+        <v>69669</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bruna Correia</t>
+          <t>Davi Lucas Monteiro</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45094</v>
+        <v>45083</v>
       </c>
       <c r="G11" t="n">
-        <v>7753.07</v>
+        <v>5929.07</v>
       </c>
     </row>
   </sheetData>
